--- a/table1.xlsx
+++ b/table1.xlsx
@@ -1,21 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangdi/GitHub/LearnR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9C3DC-B099-D94E-B20A-561684A686DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30740" yWindow="10620" windowWidth="24020" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_Hlk124824343" localSheetId="0">Sheet1!$A$7</definedName>
+    <definedName name="_Hlk124824406" localSheetId="0">Sheet1!$A$6</definedName>
+    <definedName name="_Hlk128480084" localSheetId="0">Sheet1!$A$2</definedName>
+    <definedName name="_Hlk128480240" localSheetId="0">Sheet1!$A$9</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>unemploymenta</t>
+  </si>
+  <si>
+    <t>unemploymentb</t>
+  </si>
+  <si>
+    <t>uninsureda</t>
+  </si>
+  <si>
+    <t>uninsuredb</t>
+  </si>
+  <si>
+    <t>childpovertya</t>
+  </si>
+  <si>
+    <t>childpovertyb</t>
+  </si>
+  <si>
+    <t>PCPRatea</t>
+  </si>
+  <si>
+    <t>PCPRateb</t>
+  </si>
+  <si>
+    <t>obesitya</t>
+  </si>
+  <si>
+    <t>obesityb</t>
+  </si>
+  <si>
+    <t>inactivitya</t>
+  </si>
+  <si>
+    <t>inactivityb</t>
+  </si>
+  <si>
+    <t>somecollegea</t>
+  </si>
+  <si>
+    <t>somecollegeb</t>
+  </si>
+  <si>
+    <t>highschoola</t>
+  </si>
+  <si>
+    <t>highschoolb</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inactivity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obesity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some college </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uninsured rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High school graduation rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <t>Inactivity trend</t>
+  </si>
+  <si>
+    <t>Child poverty rate baseline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primary Care Physician Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <t>Black-white difference in poverty rate</t>
+  </si>
+  <si>
+    <t>Primary Care Physician Rate trend</t>
+  </si>
+  <si>
+    <t>blwt</t>
+  </si>
+  <si>
+    <t>hpnon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +204,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -48,14 +239,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63,6 +293,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +379,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +431,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,266 +624,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>**Characteristic**</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>**N = 1,983**</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>YPLLdif</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>480 -4,693 7,156 1,007</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mentaldif</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.39 -3.10 3.11 0.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>physicaldif</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.10 -3.68 2.78 0.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>fairpoordif</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.4 -15.4 17.1 3.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>unemploymenta</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.107 0.018 0.310 0.031</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>unemploymentb</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-0.008 -0.033 0.011 0.004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>uninsureda</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.19 0.04 0.40 0.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>uninsuredb</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-0.009 -0.025 0.005 0.005</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>childpovertya</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.24 0.03 0.60 0.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>childpovertyb</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-0.001 -0.042 0.024 0.006</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PCPRatea</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>68 -13 594 45</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PCPRateb</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>-2.0 -59.4 29.1 5.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>obesitya</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>28.0 12.1 42.5 3.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>obesityb</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.58 -1.97 2.81 0.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>inactivitya</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>26.6 9.2 48.3 5.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>inactivityb</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.16 -3.16 2.99 0.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>somecollegea</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>25 4 73 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>somecollegeb</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>7.59 1.57 12.32 1.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>highschoola</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>76 27 115 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>highschoolb</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.06 -13.21 10.90 2.58</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>92.782574999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>76.104315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
+        <v>59.408619999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>58.763488000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57.753684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>50.863354000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
+        <v>50.689079999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
+        <v>49.691975999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8">
+        <v>41.560434000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="6"/>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>92.782574999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>76.104315</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="6"/>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>59.408619999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="6"/>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>58.763488000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>57.753684</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="6"/>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>50.863354000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="6"/>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>50.689079999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>49.691975999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="6"/>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>41.560434000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>40.956167000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>38.974817000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>38.173896999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>33.283932999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>27.745199</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>13.460011</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="6"/>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>9.1823910000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="6"/>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/table1.xlsx
+++ b/table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangdi/GitHub/LearnR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9C3DC-B099-D94E-B20A-561684A686DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C99C6A-40B2-4C42-9E1F-37DB13ED8F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30740" yWindow="10620" windowWidth="24020" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32320" yWindow="20040" windowWidth="24020" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>unemploymenta</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>hpnon</t>
+  </si>
+  <si>
+    <t>Relative Elasticity</t>
   </si>
 </sst>
 </file>
@@ -625,13 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -640,6 +646,9 @@
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -648,6 +657,9 @@
       <c r="B2" s="4">
         <v>100</v>
       </c>
+      <c r="C2" s="7">
+        <v>0.53183330539999996</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -656,6 +668,9 @@
       <c r="B3" s="7">
         <v>92.782574999999994</v>
       </c>
+      <c r="C3" s="7">
+        <v>0.90034313710000002</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -664,6 +679,9 @@
       <c r="B4" s="7">
         <v>76.104315</v>
       </c>
+      <c r="C4" s="7">
+        <v>-0.61861475880000005</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -672,6 +690,9 @@
       <c r="B5" s="7">
         <v>59.408619999999999</v>
       </c>
+      <c r="C5" s="7">
+        <v>-0.13915530800000001</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -680,6 +701,9 @@
       <c r="B6" s="7">
         <v>58.763488000000002</v>
       </c>
+      <c r="C6" s="7">
+        <v>0.1046631544</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -688,6 +712,9 @@
       <c r="B7" s="7">
         <v>57.753684</v>
       </c>
+      <c r="C7" s="7">
+        <v>-1.52252172E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -696,6 +723,9 @@
       <c r="B8" s="7">
         <v>50.863354000000001</v>
       </c>
+      <c r="C8" s="7">
+        <v>0.37826703070000001</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -704,6 +734,9 @@
       <c r="B9" s="7">
         <v>50.689079999999997</v>
       </c>
+      <c r="C9" s="7">
+        <v>0.1457937594</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -712,6 +745,9 @@
       <c r="B10" s="7">
         <v>49.691975999999997</v>
       </c>
+      <c r="C10" s="7">
+        <v>8.5594936100000005E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -719,6 +755,9 @@
       </c>
       <c r="B11" s="8">
         <v>41.560434000000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-4.3329435999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,6 +920,62 @@
       </c>
       <c r="F31">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="I34" s="6">
+        <v>0.53183330539999996</v>
+      </c>
+      <c r="J34">
+        <v>0.90034313710000002</v>
+      </c>
+      <c r="K34">
+        <v>-0.61861475880000005</v>
+      </c>
+      <c r="L34">
+        <v>-0.13915530800000001</v>
+      </c>
+      <c r="M34">
+        <v>0.1046631544</v>
+      </c>
+      <c r="N34">
+        <v>-1.52252172E-2</v>
+      </c>
+      <c r="O34">
+        <v>0.37826703070000001</v>
+      </c>
+      <c r="P34">
+        <v>0.1457937594</v>
+      </c>
+      <c r="Q34">
+        <v>8.5594936100000005E-2</v>
+      </c>
+      <c r="R34">
+        <v>-4.3329435999999999E-2</v>
+      </c>
+      <c r="S34">
+        <v>7.6170379E-3</v>
+      </c>
+      <c r="T34">
+        <v>-3.0958612699999999E-2</v>
+      </c>
+      <c r="U34">
+        <v>-0.55543236129999995</v>
+      </c>
+      <c r="V34">
+        <v>5.9124358E-3</v>
+      </c>
+      <c r="W34">
+        <v>3.4518999799999998E-2</v>
+      </c>
+      <c r="X34">
+        <v>-5.7396439999999997E-4</v>
+      </c>
+      <c r="Y34">
+        <v>4.7283432799999997E-2</v>
+      </c>
+      <c r="Z34">
+        <v>4.8444912000000003E-3</v>
       </c>
     </row>
   </sheetData>
